--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H2">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I2">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J2">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N2">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O2">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P2">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q2">
-        <v>3.865156169472</v>
+        <v>2.947122236733667</v>
       </c>
       <c r="R2">
-        <v>34.786405525248</v>
+        <v>26.524100130603</v>
       </c>
       <c r="S2">
-        <v>0.0005647827056433397</v>
+        <v>0.000310642659775787</v>
       </c>
       <c r="T2">
-        <v>0.0005647827056433396</v>
+        <v>0.0003106426597757869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H3">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I3">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J3">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N3">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O3">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P3">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q3">
-        <v>9.468902443199333</v>
+        <v>3.935793169339222</v>
       </c>
       <c r="R3">
-        <v>85.22012198879401</v>
+        <v>35.422138524053</v>
       </c>
       <c r="S3">
-        <v>0.001383610934942764</v>
+        <v>0.0004148539355483135</v>
       </c>
       <c r="T3">
-        <v>0.001383610934942765</v>
+        <v>0.0004148539355483134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H4">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I4">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J4">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N4">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O4">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P4">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q4">
-        <v>7.348435918754667</v>
+        <v>3.645876270984445</v>
       </c>
       <c r="R4">
-        <v>66.135923268792</v>
+        <v>32.81288643886</v>
       </c>
       <c r="S4">
-        <v>0.001073765027457586</v>
+        <v>0.0003842951228542429</v>
       </c>
       <c r="T4">
-        <v>0.001073765027457586</v>
+        <v>0.0003842951228542428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H5">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I5">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J5">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N5">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O5">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P5">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q5">
-        <v>3.20587202104</v>
+        <v>1.101835800692222</v>
       </c>
       <c r="R5">
-        <v>28.85284818936</v>
+        <v>9.916522206230001</v>
       </c>
       <c r="S5">
-        <v>0.0004684470677511052</v>
+        <v>0.0001161394663231092</v>
       </c>
       <c r="T5">
-        <v>0.0004684470677511052</v>
+        <v>0.0001161394663231091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H6">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I6">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J6">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N6">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O6">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P6">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q6">
-        <v>6.543604755826666</v>
+        <v>3.012419194966778</v>
       </c>
       <c r="R6">
-        <v>58.89244280243999</v>
+        <v>27.111772754701</v>
       </c>
       <c r="S6">
-        <v>0.0009561618306256594</v>
+        <v>0.0003175253131411537</v>
       </c>
       <c r="T6">
-        <v>0.0009561618306256594</v>
+        <v>0.0003175253131411537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.469846</v>
+        <v>0.1952936666666667</v>
       </c>
       <c r="H7">
-        <v>1.409538</v>
+        <v>0.585881</v>
       </c>
       <c r="I7">
-        <v>0.005395061987533644</v>
+        <v>0.001827617096392301</v>
       </c>
       <c r="J7">
-        <v>0.005395061987533643</v>
+        <v>0.0018276170963923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N7">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O7">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P7">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q7">
-        <v>6.489763223302665</v>
+        <v>2.695882207496</v>
       </c>
       <c r="R7">
-        <v>58.40786900972399</v>
+        <v>24.262939867464</v>
       </c>
       <c r="S7">
-        <v>0.0009482944211131886</v>
+        <v>0.0002841605987496945</v>
       </c>
       <c r="T7">
-        <v>0.0009482944211131886</v>
+        <v>0.0002841605987496944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H8">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I8">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J8">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N8">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O8">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P8">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q8">
-        <v>23.845703419008</v>
+        <v>50.76102543524433</v>
       </c>
       <c r="R8">
-        <v>214.611330771072</v>
+        <v>456.849228917199</v>
       </c>
       <c r="S8">
-        <v>0.003484371731555603</v>
+        <v>0.005350487250785753</v>
       </c>
       <c r="T8">
-        <v>0.003484371731555602</v>
+        <v>0.005350487250785752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H9">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I9">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J9">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N9">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O9">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P9">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q9">
-        <v>58.417468651699</v>
+        <v>67.7898238106721</v>
       </c>
       <c r="R9">
-        <v>525.7572178652911</v>
+        <v>610.1084142960489</v>
       </c>
       <c r="S9">
-        <v>0.008536052504819895</v>
+        <v>0.007145414910790556</v>
       </c>
       <c r="T9">
-        <v>0.008536052504819895</v>
+        <v>0.007145414910790555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H10">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I10">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J10">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N10">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O10">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P10">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q10">
-        <v>45.335457567332</v>
+        <v>62.79631561204222</v>
       </c>
       <c r="R10">
-        <v>408.019118105988</v>
+        <v>565.16684050838</v>
       </c>
       <c r="S10">
-        <v>0.006624488445949212</v>
+        <v>0.006619072077398685</v>
       </c>
       <c r="T10">
-        <v>0.006624488445949212</v>
+        <v>0.006619072077398684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H11">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I11">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J11">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N11">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O11">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P11">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q11">
-        <v>19.77831426756</v>
+        <v>18.97794207762111</v>
       </c>
       <c r="R11">
-        <v>178.00482840804</v>
+        <v>170.80147869859</v>
       </c>
       <c r="S11">
-        <v>0.002890038424145419</v>
+        <v>0.002000377972308657</v>
       </c>
       <c r="T11">
-        <v>0.002890038424145419</v>
+        <v>0.002000377972308657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H12">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I12">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J12">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N12">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O12">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P12">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q12">
-        <v>40.37013032774</v>
+        <v>51.88569563602589</v>
       </c>
       <c r="R12">
-        <v>363.33117294966</v>
+        <v>466.971260724233</v>
       </c>
       <c r="S12">
-        <v>0.005898947011186323</v>
+        <v>0.005469033586661037</v>
       </c>
       <c r="T12">
-        <v>0.005898947011186323</v>
+        <v>0.005469033586661037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.898669</v>
+        <v>3.363724333333333</v>
       </c>
       <c r="H13">
-        <v>8.696007</v>
+        <v>10.091173</v>
       </c>
       <c r="I13">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="J13">
-        <v>0.03328430791438505</v>
+        <v>0.03147874789838274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N13">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O13">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P13">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q13">
-        <v>40.03796025235399</v>
+        <v>46.433684900968</v>
       </c>
       <c r="R13">
-        <v>360.3416422711859</v>
+        <v>417.903164108712</v>
       </c>
       <c r="S13">
-        <v>0.005850409796728599</v>
+        <v>0.004894362100438059</v>
       </c>
       <c r="T13">
-        <v>0.005850409796728599</v>
+        <v>0.004894362100438057</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H14">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I14">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J14">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N14">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O14">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P14">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q14">
-        <v>652.097081294208</v>
+        <v>1526.358445451895</v>
       </c>
       <c r="R14">
-        <v>5868.873731647872</v>
+        <v>13737.22600906706</v>
       </c>
       <c r="S14">
-        <v>0.09528545232514583</v>
+        <v>0.1608864543711363</v>
       </c>
       <c r="T14">
-        <v>0.09528545232514583</v>
+        <v>0.1608864543711362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H15">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I15">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J15">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N15">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O15">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P15">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q15">
-        <v>1597.514660607716</v>
+        <v>2038.405828131145</v>
       </c>
       <c r="R15">
-        <v>14377.63194546944</v>
+        <v>18345.6524531803</v>
       </c>
       <c r="S15">
-        <v>0.2334313576897926</v>
+        <v>0.2148590242578217</v>
       </c>
       <c r="T15">
-        <v>0.2334313576897926</v>
+        <v>0.2148590242578216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H16">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I16">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J16">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N16">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O16">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P16">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q16">
-        <v>1239.767141246465</v>
+        <v>1888.2535538999</v>
       </c>
       <c r="R16">
-        <v>11157.90427121819</v>
+        <v>16994.2819850991</v>
       </c>
       <c r="S16">
-        <v>0.1811567268435981</v>
+        <v>0.1990321605949581</v>
       </c>
       <c r="T16">
-        <v>0.1811567268435981</v>
+        <v>0.1990321605949581</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H17">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I17">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J17">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N17">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O17">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P17">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q17">
-        <v>540.86812958156</v>
+        <v>570.65715121195</v>
       </c>
       <c r="R17">
-        <v>4867.813166234039</v>
+        <v>5135.914360907551</v>
       </c>
       <c r="S17">
-        <v>0.07903250275733489</v>
+        <v>0.06015035720711222</v>
       </c>
       <c r="T17">
-        <v>0.07903250275733489</v>
+        <v>0.06015035720711223</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H18">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I18">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J18">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N18">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O18">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P18">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q18">
-        <v>1103.982704792073</v>
+        <v>1560.176711426465</v>
       </c>
       <c r="R18">
-        <v>9935.84434312866</v>
+        <v>14041.59040283819</v>
       </c>
       <c r="S18">
-        <v>0.161315691179716</v>
+        <v>0.1644510829299397</v>
       </c>
       <c r="T18">
-        <v>0.161315691179716</v>
+        <v>0.1644510829299397</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>79.268519</v>
+        <v>101.145495</v>
       </c>
       <c r="H19">
-        <v>237.805557</v>
+        <v>303.436485</v>
       </c>
       <c r="I19">
-        <v>0.9102100979150368</v>
+        <v>0.9465500804006033</v>
       </c>
       <c r="J19">
-        <v>0.9102100979150367</v>
+        <v>0.9465500804006032</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N19">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O19">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P19">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q19">
-        <v>1094.899008125787</v>
+        <v>1396.23749706276</v>
       </c>
       <c r="R19">
-        <v>9854.091073132084</v>
+        <v>12566.13747356484</v>
       </c>
       <c r="S19">
-        <v>0.1599883671194493</v>
+        <v>0.1471710010396355</v>
       </c>
       <c r="T19">
-        <v>0.1599883671194493</v>
+        <v>0.1471710010396355</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H20">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I20">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J20">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N20">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O20">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P20">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q20">
-        <v>36.61685245670401</v>
+        <v>32.48247010783967</v>
       </c>
       <c r="R20">
-        <v>329.551672110336</v>
+        <v>292.342230970557</v>
       </c>
       <c r="S20">
-        <v>0.005350512138676489</v>
+        <v>0.003423828433248216</v>
       </c>
       <c r="T20">
-        <v>0.005350512138676489</v>
+        <v>0.003423828433248216</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H21">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I21">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J21">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N21">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O21">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P21">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q21">
-        <v>89.70437117859535</v>
+        <v>43.37936254567855</v>
       </c>
       <c r="R21">
-        <v>807.3393406073582</v>
+        <v>390.414262911107</v>
       </c>
       <c r="S21">
-        <v>0.01310774396709626</v>
+        <v>0.004572419967046493</v>
       </c>
       <c r="T21">
-        <v>0.01310774396709626</v>
+        <v>0.004572419967046492</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H22">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I22">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J22">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N22">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O22">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P22">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q22">
-        <v>69.61596945288268</v>
+        <v>40.18396845337112</v>
       </c>
       <c r="R22">
-        <v>626.5437250759441</v>
+        <v>361.65571608034</v>
       </c>
       <c r="S22">
-        <v>0.01017239507529502</v>
+        <v>0.004235608107838929</v>
       </c>
       <c r="T22">
-        <v>0.01017239507529502</v>
+        <v>0.004235608107838929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H23">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I23">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J23">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N23">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O23">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P23">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q23">
-        <v>30.37107367528</v>
+        <v>12.14416830548556</v>
       </c>
       <c r="R23">
-        <v>273.33966307752</v>
+        <v>109.29751474937</v>
       </c>
       <c r="S23">
-        <v>0.004437869108393889</v>
+        <v>0.00128006117159292</v>
       </c>
       <c r="T23">
-        <v>0.004437869108393889</v>
+        <v>0.00128006117159292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H24">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I24">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J24">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N24">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O24">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P24">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q24">
-        <v>61.99133990278668</v>
+        <v>33.20215742433545</v>
       </c>
       <c r="R24">
-        <v>557.9220591250801</v>
+        <v>298.819416819019</v>
       </c>
       <c r="S24">
-        <v>0.009058272199525264</v>
+        <v>0.003499687377752306</v>
       </c>
       <c r="T24">
-        <v>0.009058272199525264</v>
+        <v>0.003499687377752306</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.451122000000001</v>
+        <v>2.152479666666667</v>
       </c>
       <c r="H25">
-        <v>13.353366</v>
+        <v>6.457439</v>
       </c>
       <c r="I25">
-        <v>0.05111053218304451</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="J25">
-        <v>0.0511105321830445</v>
+        <v>0.02014355460462176</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N25">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O25">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P25">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q25">
-        <v>61.48126802831867</v>
+        <v>29.713363133624</v>
       </c>
       <c r="R25">
-        <v>553.3314122548679</v>
+        <v>267.420268202616</v>
       </c>
       <c r="S25">
-        <v>0.008983739694057583</v>
+        <v>0.003131949547142898</v>
       </c>
       <c r="T25">
-        <v>0.008983739694057583</v>
+        <v>0.003131949547142898</v>
       </c>
     </row>
   </sheetData>
